--- a/Приоритет.xlsx
+++ b/Приоритет.xlsx
@@ -448,21 +448,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>ДОМОДЕДОВО_РФЦ</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5071.784806008186</v>
+        <v>1458.285683718077</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>СПБ_КОЛПИНО_РФЦ</t>
+          <t>ЖУКОВСКИЙ_РФЦ</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4241.418617296249</v>
+        <v>1268.509184746958</v>
       </c>
     </row>
     <row r="4">
@@ -472,27 +472,27 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3537.074635064992</v>
+        <v>1196.532006883318</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ЖУКОВСКИЙ_РФЦ</t>
+          <t>СОФЬИНО_РФЦ</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2956.762218460496</v>
+        <v>1095.80552091742</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ПУШКИНО_2_РФЦ</t>
+          <t>Казань_РФЦ_НОВЫЙ</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2575.866773094667</v>
+        <v>1003.562775320186</v>
       </c>
     </row>
     <row r="7">
@@ -502,17 +502,17 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2403.685298843929</v>
+        <v>800.683796319311</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ДОМОДЕДОВО_РФЦ</t>
+          <t>ПУШКИНО_2_РФЦ</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2140.807768373513</v>
+        <v>776.8524513602208</v>
       </c>
     </row>
     <row r="9">
@@ -522,37 +522,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2073.845660881166</v>
+        <v>748.252546581271</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Казань_РФЦ_НОВЫЙ</t>
+          <t>СПБ_КОЛПИНО_РФЦ</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2051.560508982805</v>
+        <v>743.2309113106886</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>СПБ_ШУШАРЫ_РФЦ</t>
+          <t>Санкт_Петербург_РФЦ</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1931.302434277024</v>
+        <v>687.457479270229</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>СОФЬИНО_РФЦ</t>
+          <t>СПБ_ШУШАРЫ_РФЦ</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1592.536696773072</v>
+        <v>548.3770200007274</v>
       </c>
     </row>
   </sheetData>
